--- a/output/MOMENTUM/rebalance/rebalance_20240329.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240329.xlsx
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03325873160938729</v>
+        <v>0.03325958250455704</v>
       </c>
       <c r="C3" t="n">
         <v>0.02091847336704301</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01234025824234428</v>
+        <v>-0.01234110913751402</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02558944556382256</v>
+        <v>0.02559016101291688</v>
       </c>
       <c r="C10" t="n">
         <v>0.02051441896977673</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.00507502659404583</v>
+        <v>-0.005075742043140145</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02460340164521093</v>
+        <v>0.02460328663955121</v>
       </c>
       <c r="C17" t="n">
         <v>0.02035279721087022</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004250604434340711</v>
+        <v>-0.004250489428680993</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0265662150954444</v>
+        <v>0.02656655365502496</v>
       </c>
       <c r="C20" t="n">
         <v>0.02027198633141696</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.006294228764027434</v>
+        <v>-0.006294567323607999</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02208403687893405</v>
+        <v>0.02208399652081766</v>
       </c>
       <c r="C27" t="n">
         <v>0.019925653990903</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.002158382888031048</v>
+        <v>-0.002158342529914661</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6978,13 +6978,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02298686988141034</v>
+        <v>0.02298679738263113</v>
       </c>
       <c r="C36" t="n">
         <v>0.01962549929579091</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.00336137058561943</v>
+        <v>-0.003361298086840225</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02083242495488454</v>
+        <v>0.02083236711477673</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02083242495488454</v>
+        <v>-0.02083236711477673</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01663951555150829</v>
+        <v>0.01663925943397788</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01663951555150829</v>
+        <v>-0.01663925943397788</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01708712381281235</v>
+        <v>0.01708724266254695</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01708712381281235</v>
+        <v>-0.01708724266254695</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.0228791989922312</v>
+        <v>0.02287916191143459</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.0228791989922312</v>
+        <v>-0.02287916191143459</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01933819096365916</v>
+        <v>0.01933819579800215</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01933819096365916</v>
+        <v>-0.01933819579800215</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01382726770414262</v>
+        <v>0.01382761479304181</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01382726770414262</v>
+        <v>-0.01382761479304181</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01880198319671288</v>
+        <v>0.01880178990130494</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01880198319671288</v>
+        <v>-0.01880178990130494</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01742724278643326</v>
+        <v>0.01742734547954337</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01742724278643326</v>
+        <v>-0.01742734547954337</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02323415677874398</v>
+        <v>0.02323419565625298</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02323415677874398</v>
+        <v>-0.02323419565625298</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01634987862802248</v>
+        <v>0.01634998254403165</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01634987862802248</v>
+        <v>-0.01634998254403165</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01890160928949548</v>
+        <v>0.01890157930745472</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01890160928949548</v>
+        <v>-0.01890157930745472</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01934106241586813</v>
+        <v>0.01934101858072979</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01934106241586813</v>
+        <v>-0.01934101858072979</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01932657643455186</v>
+        <v>0.01932681852848485</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01932657643455186</v>
+        <v>-0.01932681852848485</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01894957840502939</v>
+        <v>0.01894968978763232</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01894957840502939</v>
+        <v>-0.01894968978763232</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.02018363846423204</v>
+        <v>0.0201833522490302</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.02018363846423204</v>
+        <v>-0.0201833522490302</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.01977163172382299</v>
+        <v>0.0197714825428021</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.01977163172382299</v>
+        <v>-0.0197714825428021</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02207342383009261</v>
+        <v>0.02207348593058086</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02207342383009261</v>
+        <v>-0.02207348593058086</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02292831506446567</v>
+        <v>0.02292813708239726</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.02292831506446567</v>
+        <v>-0.02292813708239726</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02029653407432889</v>
+        <v>0.02029646530457881</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02029653407432889</v>
+        <v>-0.02029646530457881</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02088149527695085</v>
+        <v>0.02088134694031584</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02088149527695085</v>
+        <v>-0.02088134694031584</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01832691131915668</v>
+        <v>0.01832666276468245</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01832691131915668</v>
+        <v>-0.01832666276468245</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01911761251170535</v>
+        <v>0.01911742815067806</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01911761251170535</v>
+        <v>-0.01911742815067806</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02221891692450817</v>
+        <v>0.02221877932880303</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02221891692450817</v>
+        <v>-0.02221877932880303</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01976147508727401</v>
+        <v>0.01976129962445056</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01976147508727401</v>
+        <v>-0.01976129962445056</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.02137852749914718</v>
+        <v>0.0213788644130546</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.02137852749914718</v>
+        <v>-0.0213788644130546</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01732345071504074</v>
+        <v>0.01732346234583675</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01732345071504074</v>
+        <v>-0.01732346234583675</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.0174488208264024</v>
+        <v>0.01744877164976035</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.0174488208264024</v>
+        <v>-0.01744877164976035</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01893262270840771</v>
+        <v>0.01893251128948993</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01893262270840771</v>
+        <v>-0.01893251128948993</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01733832859343007</v>
+        <v>0.01733810511530696</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01733832859343007</v>
+        <v>-0.01733810511530696</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02140636435770919</v>
+        <v>0.02140609159028499</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02140636435770919</v>
+        <v>-0.02140609159028499</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01851590574280138</v>
+        <v>0.01851600820729371</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01851590574280138</v>
+        <v>-0.01851600820729371</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01509005808052317</v>
+        <v>0.01508995022121705</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01509005808052317</v>
+        <v>-0.01508995022121705</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01987998908095147</v>
+        <v>0.01988036096425368</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01987998908095147</v>
+        <v>-0.01988036096425368</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02067454466660609</v>
+        <v>0.02067456792841862</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02067454466660609</v>
+        <v>-0.02067456792841862</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01999298712043313</v>
+        <v>0.019993316485491</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.01999298712043313</v>
+        <v>-0.019993316485491</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01934767995802786</v>
+        <v>0.01934722326715486</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01934767995802786</v>
+        <v>-0.01934722326715486</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01973601896738688</v>
+        <v>0.01973597321289686</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01973601896738688</v>
+        <v>-0.01973597321289686</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01932741238065817</v>
+        <v>0.01932736220603394</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01932741238065817</v>
+        <v>-0.01932736220603394</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01890428586052728</v>
+        <v>0.01890449431849364</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01890428586052728</v>
+        <v>-0.01890449431849364</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01676391656754214</v>
+        <v>0.01676375038002203</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01676391656754214</v>
+        <v>-0.01676375038002203</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8154,13 +8154,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02266983491838011</v>
+        <v>0.02266914910856949</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02266983491838011</v>
+        <v>-0.02266914910856949</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8175,13 +8175,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01725572686445782</v>
+        <v>0.01725589695488703</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01725572686445782</v>
+        <v>-0.01725589695488703</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8196,13 +8196,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01744407216947206</v>
+        <v>0.01744413154083855</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.01744407216947206</v>
+        <v>-0.01744413154083855</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.0169849880572527</v>
+        <v>0.01698492966766317</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.0169849880572527</v>
+        <v>-0.01698492966766317</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>

--- a/output/MOMENTUM/rebalance/rebalance_20240329.xlsx
+++ b/output/MOMENTUM/rebalance/rebalance_20240329.xlsx
@@ -6285,13 +6285,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03325958250455704</v>
+        <v>0.03327708670174178</v>
       </c>
       <c r="C3" t="n">
         <v>0.02091847336704301</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01234110913751402</v>
+        <v>-0.01235861333469877</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -6432,13 +6432,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02559016101291688</v>
+        <v>0.0256035680698201</v>
       </c>
       <c r="C10" t="n">
         <v>0.02051441896977673</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.005075742043140145</v>
+        <v>-0.005089149100043371</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -6579,13 +6579,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02460328663955121</v>
+        <v>0.02461697996547691</v>
       </c>
       <c r="C17" t="n">
         <v>0.02035279721087022</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.004250489428680993</v>
+        <v>-0.004264182754606691</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -6642,13 +6642,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.02656655365502496</v>
+        <v>0.02658087666875131</v>
       </c>
       <c r="C20" t="n">
         <v>0.02027198633141696</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.006294567323607999</v>
+        <v>-0.006308890337334352</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -6789,13 +6789,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.02208399652081766</v>
+        <v>0.02209622479220848</v>
       </c>
       <c r="C27" t="n">
         <v>0.019925653990903</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.002158342529914661</v>
+        <v>-0.00217057080130548</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -6978,13 +6978,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02298679738263113</v>
+        <v>0.02299955605731654</v>
       </c>
       <c r="C36" t="n">
         <v>0.01962549929579091</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.003361298086840225</v>
+        <v>-0.003374056761525638</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -7314,13 +7314,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.02083236711477673</v>
+        <v>0.02084392211865211</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.02083236711477673</v>
+        <v>-0.02084392211865211</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -7335,13 +7335,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01663925943397788</v>
+        <v>0.01664869869920824</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.01663925943397788</v>
+        <v>-0.01664869869920824</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -7356,13 +7356,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.01708724266254695</v>
+        <v>0.01709655399010655</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.01708724266254695</v>
+        <v>-0.01709655399010655</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.02287916191143459</v>
+        <v>0.02289182574587387</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.02287916191143459</v>
+        <v>-0.02289182574587387</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -7398,13 +7398,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.01933819579800215</v>
+        <v>0.01934886347773082</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.01933819579800215</v>
+        <v>-0.01934886347773082</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -7419,13 +7419,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.01382761479304181</v>
+        <v>0.01383489880621532</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.01382761479304181</v>
+        <v>-0.01383489880621532</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -7440,13 +7440,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.01880178990130494</v>
+        <v>0.01881235978419302</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.01880178990130494</v>
+        <v>-0.01881235978419302</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -7461,13 +7461,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.01742734547954337</v>
+        <v>0.01743686067128185</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.01742734547954337</v>
+        <v>-0.01743686067128185</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -7482,13 +7482,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.02323419565625298</v>
+        <v>0.02324697942930268</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.02323419565625298</v>
+        <v>-0.02324697942930268</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.01634998254403165</v>
+        <v>0.01635890192860191</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.01634998254403165</v>
+        <v>-0.01635890192860191</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -7524,13 +7524,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.01890157930745472</v>
+        <v>0.01891204085941317</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.01890157930745472</v>
+        <v>-0.01891204085941317</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.01934101858072979</v>
+        <v>0.01935173651465959</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.01934101858072979</v>
+        <v>-0.01935173651465959</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -7566,13 +7566,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.01932681852848485</v>
+        <v>0.01933724253870516</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.01932681852848485</v>
+        <v>-0.01933724253870516</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -7587,13 +7587,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.01894968978763232</v>
+        <v>0.01896003644852269</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.01894968978763232</v>
+        <v>-0.01896003644852269</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -7608,13 +7608,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0201833522490302</v>
+        <v>0.02019477757056994</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.0201833522490302</v>
+        <v>-0.02019477757056994</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -7629,13 +7629,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0197714825428021</v>
+        <v>0.01978254344861611</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.0197714825428021</v>
+        <v>-0.01978254344861611</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -7650,13 +7650,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.02207348593058086</v>
+        <v>0.02208560588615355</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.02207348593058086</v>
+        <v>-0.02208560588615355</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -7671,13 +7671,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.02292813708239726</v>
+        <v>0.02294096892467549</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.02292813708239726</v>
+        <v>-0.02294096892467549</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -7692,13 +7692,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.02029646530457881</v>
+        <v>0.02030773548639072</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.02029646530457881</v>
+        <v>-0.02030773548639072</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -7713,13 +7713,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.02088134694031584</v>
+        <v>0.02089301952203661</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.02088134694031584</v>
+        <v>-0.02089301952203661</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -7734,13 +7734,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01832666276468245</v>
+        <v>0.0183370257202044</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.01832666276468245</v>
+        <v>-0.0183370257202044</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -7755,13 +7755,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01911742815067806</v>
+        <v>0.01912816329119301</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.01911742815067806</v>
+        <v>-0.01912816329119301</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -7776,13 +7776,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.02221877932880303</v>
+        <v>0.02223117927645099</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.02221877932880303</v>
+        <v>-0.02223117927645099</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -7797,13 +7797,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01976129962445056</v>
+        <v>0.01977238120674207</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.01976129962445056</v>
+        <v>-0.01977238120674207</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7818,13 +7818,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.0213788644130546</v>
+        <v>0.02139032605031439</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.0213788644130546</v>
+        <v>-0.02139032605031439</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -7839,13 +7839,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01732346234583675</v>
+        <v>0.01733301131829848</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.01732346234583675</v>
+        <v>-0.01733301131829848</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7860,13 +7860,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01744877164976035</v>
+        <v>0.01745845061991068</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.01744877164976035</v>
+        <v>-0.01745845061991068</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7881,13 +7881,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01893251128948993</v>
+        <v>0.0189430713942568</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01893251128948993</v>
+        <v>-0.0189430713942568</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7902,13 +7902,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01733810511530696</v>
+        <v>0.01734789740760924</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01733810511530696</v>
+        <v>-0.01734789740760924</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7923,13 +7923,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02140609159028499</v>
+        <v>0.0214181782717025</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02140609159028499</v>
+        <v>-0.0214181782717025</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7944,13 +7944,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.01851600820729371</v>
+        <v>0.01852612444758928</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.01851600820729371</v>
+        <v>-0.01852612444758928</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7965,13 +7965,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.01508995022121705</v>
+        <v>0.01509838610135559</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.01508995022121705</v>
+        <v>-0.01509838610135559</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7986,13 +7986,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01988036096425368</v>
+        <v>0.01933907268250927</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.01988036096425368</v>
+        <v>-0.01933907268250927</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -8007,13 +8007,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.02067456792841862</v>
+        <v>0.02068595469814908</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.02067456792841862</v>
+        <v>-0.02068595469814908</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -8028,13 +8028,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.019993316485491</v>
+        <v>0.02000402100859663</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.019993316485491</v>
+        <v>-0.02000402100859663</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -8049,13 +8049,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01934722326715486</v>
+        <v>0.01935835770896092</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.01934722326715486</v>
+        <v>-0.01935835770896092</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -8070,13 +8070,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01973597321289686</v>
+        <v>0.01974691103792976</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.01973597321289686</v>
+        <v>-0.01974691103792976</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8091,13 +8091,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.01932736220603394</v>
+        <v>0.01933807894616004</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.01932736220603394</v>
+        <v>-0.01933807894616004</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -8112,13 +8112,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.01890449431849364</v>
+        <v>0.01891471890761222</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.01890449431849364</v>
+        <v>-0.01891471890761222</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8133,13 +8133,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.01676375038002203</v>
+        <v>0.01677316837066062</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.01676375038002203</v>
+        <v>-0.01677316837066062</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8154,13 +8154,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.02266914910856949</v>
+        <v>0.02268234612651862</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.02266914910856949</v>
+        <v>-0.02268234612651862</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8175,13 +8175,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.01725589695488703</v>
+        <v>0.01726525009174023</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.01725589695488703</v>
+        <v>-0.01726525009174023</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8196,13 +8196,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.01744413154083855</v>
+        <v>0.01745369934225392</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.01744413154083855</v>
+        <v>-0.01745369934225392</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -8217,13 +8217,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.01698492966766317</v>
+        <v>0.01699436186705677</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.01698492966766317</v>
+        <v>-0.01699436186705677</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
